--- a/results/I3_N5_M3_T45_C150_DepLowerLeft_s4_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepLowerLeft_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>863.6592543971529</v>
+        <v>1595.347402489875</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.95601360621536</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.592417282872393</v>
+        <v>9.435697723104893</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.555658073811509</v>
+        <v>9.237602502814244</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>724.1199999999985</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.62</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -766,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -857,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -879,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -890,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -956,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>19.28956874289246</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>40.27548355737303</v>
       </c>
     </row>
     <row r="8">
@@ -980,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -988,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.58008498396507</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -996,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34.78792875046599</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1056,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1070,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1084,13 +1073,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1098,13 +1087,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1115,10 +1104,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1126,15 +1115,127 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1237,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1248,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000007</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1259,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1270,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000008</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1281,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1292,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>136.505</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
@@ -1303,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>141.37</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1314,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>151.64</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -1325,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>147.335</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -1336,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.25</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -1347,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000000073</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1358,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -1369,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000073</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -1380,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000073</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1391,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000073</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -1402,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>198.9800000000001</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
@@ -1413,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>211.6850000000001</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
@@ -1424,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>214.3</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
@@ -1435,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>220.5450000000001</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
@@ -1446,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>215.3150000000001</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
@@ -1457,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.8399999999998</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28">
@@ -1468,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.6949999999998</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
@@ -1479,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>161.6799999999998</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30">
@@ -1490,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>160.4149999999998</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
@@ -1501,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>151.6049999999998</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32">
@@ -1512,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
@@ -1523,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
@@ -1534,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
@@ -1545,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36">
@@ -1556,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37">
@@ -1567,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>198.9800000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1578,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>211.6850000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1589,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>214.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1600,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>220.5450000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1611,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>215.3150000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1622,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>163.8399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1633,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>163.6949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1644,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>161.6799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1655,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>160.4149999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1666,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>151.6049999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1724,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
@@ -1735,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
@@ -1746,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -1757,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
@@ -1768,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>48.98000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1779,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>61.68500000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1790,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>64.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1801,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>70.5450000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1812,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>65.31500000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1823,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>13.83999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1834,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1845,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.67999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1856,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>10.4149999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1867,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1.604999999999773</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1925,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1936,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1947,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1958,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2024,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2035,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2046,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2057,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2068,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2134,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2145,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2156,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2167,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2178,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2222,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2230,10 +2331,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2241,10 +2342,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2252,10 +2353,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2263,10 +2364,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2277,7 +2378,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2285,10 +2386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2296,10 +2397,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2307,10 +2408,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2318,10 +2419,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2332,9 +2433,53 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
